--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N2">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O2">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P2">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q2">
-        <v>93.14904490157066</v>
+        <v>136.3497956862119</v>
       </c>
       <c r="R2">
-        <v>838.341404114136</v>
+        <v>1227.148161175907</v>
       </c>
       <c r="S2">
-        <v>0.00659483765138934</v>
+        <v>0.006182630043303617</v>
       </c>
       <c r="T2">
-        <v>0.008704403343170941</v>
+        <v>0.0085775456012116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N3">
         <v>20.463629</v>
       </c>
       <c r="O3">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P3">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q3">
-        <v>659.0656599810745</v>
+        <v>609.6945515902187</v>
       </c>
       <c r="R3">
-        <v>5931.590939829671</v>
+        <v>5487.250964311967</v>
       </c>
       <c r="S3">
-        <v>0.0466610369840482</v>
+        <v>0.02764592226141046</v>
       </c>
       <c r="T3">
-        <v>0.06158703334178464</v>
+        <v>0.03835490029710547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N4">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O4">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P4">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q4">
-        <v>137.2189983640667</v>
+        <v>107.0361071740262</v>
       </c>
       <c r="R4">
-        <v>1234.9709852766</v>
+        <v>963.3249645662361</v>
       </c>
       <c r="S4">
-        <v>0.00971493607748221</v>
+        <v>0.004853433396081869</v>
       </c>
       <c r="T4">
-        <v>0.01282256312309875</v>
+        <v>0.006733468764223633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N5">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O5">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P5">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q5">
-        <v>1955.182631593932</v>
+        <v>3805.138776326309</v>
       </c>
       <c r="R5">
-        <v>11731.09578956359</v>
+        <v>22830.83265795785</v>
       </c>
       <c r="S5">
-        <v>0.1384245222031336</v>
+        <v>0.1725397914903777</v>
       </c>
       <c r="T5">
-        <v>0.121802631849773</v>
+        <v>0.1595834263807308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N6">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O6">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P6">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q6">
-        <v>144.1897489242427</v>
+        <v>69.10356373740024</v>
       </c>
       <c r="R6">
-        <v>1297.707740318184</v>
+        <v>621.9320736366021</v>
       </c>
       <c r="S6">
-        <v>0.01020845663157129</v>
+        <v>0.003133424345170479</v>
       </c>
       <c r="T6">
-        <v>0.01347395170732441</v>
+        <v>0.004347193673306856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N7">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O7">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P7">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q7">
-        <v>117.9585041572181</v>
+        <v>186.6472998321468</v>
       </c>
       <c r="R7">
-        <v>1061.626537414963</v>
+        <v>1679.825698489321</v>
       </c>
       <c r="S7">
-        <v>0.008351316809953366</v>
+        <v>0.008463314503964614</v>
       </c>
       <c r="T7">
-        <v>0.01102274745840383</v>
+        <v>0.0117416804154049</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N8">
         <v>20.463629</v>
       </c>
       <c r="O8">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P8">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q8">
-        <v>834.6022170694999</v>
+        <v>834.6022170695002</v>
       </c>
       <c r="R8">
-        <v>7511.419953625499</v>
+        <v>7511.419953625501</v>
       </c>
       <c r="S8">
-        <v>0.05908880902513847</v>
+        <v>0.03784411055031377</v>
       </c>
       <c r="T8">
-        <v>0.07799021810856095</v>
+        <v>0.05250347856964088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N9">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O9">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P9">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q9">
-        <v>173.7661165080195</v>
+        <v>146.5202077350565</v>
       </c>
       <c r="R9">
-        <v>1563.895048572175</v>
+        <v>1318.681869615508</v>
       </c>
       <c r="S9">
-        <v>0.01230242702857247</v>
+        <v>0.006643796081503423</v>
       </c>
       <c r="T9">
-        <v>0.01623774422014209</v>
+        <v>0.009217349809887048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N10">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O10">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P10">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q10">
-        <v>2475.928967609894</v>
+        <v>5208.800457041859</v>
       </c>
       <c r="R10">
-        <v>14855.57380565936</v>
+        <v>31252.80274225115</v>
       </c>
       <c r="S10">
-        <v>0.1752927214123689</v>
+        <v>0.2361872713721799</v>
       </c>
       <c r="T10">
-        <v>0.154243731329652</v>
+        <v>0.218451487088936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N11">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O11">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P11">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q11">
-        <v>182.5934674465108</v>
+        <v>94.59488747637846</v>
       </c>
       <c r="R11">
-        <v>1643.341207018597</v>
+        <v>851.3539872874061</v>
       </c>
       <c r="S11">
-        <v>0.01292739260275205</v>
+        <v>0.004289300107205983</v>
       </c>
       <c r="T11">
-        <v>0.01706262463734379</v>
+        <v>0.005950811711059766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N12">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O12">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P12">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q12">
-        <v>80.73540384032212</v>
+        <v>137.8027307956982</v>
       </c>
       <c r="R12">
-        <v>726.618634562899</v>
+        <v>1240.224577161284</v>
       </c>
       <c r="S12">
-        <v>0.005715967153596676</v>
+        <v>0.006248511772085622</v>
       </c>
       <c r="T12">
-        <v>0.007544398547967356</v>
+        <v>0.008668947404158934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N13">
         <v>20.463629</v>
       </c>
       <c r="O13">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P13">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q13">
-        <v>571.234329585308</v>
+        <v>616.191419558445</v>
       </c>
       <c r="R13">
-        <v>5141.108966267772</v>
+        <v>5545.722776026004</v>
       </c>
       <c r="S13">
-        <v>0.04044268697007129</v>
+        <v>0.02794051552343611</v>
       </c>
       <c r="T13">
-        <v>0.05337954901663758</v>
+        <v>0.03876360777614533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N14">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O14">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P14">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q14">
-        <v>118.9323117504195</v>
+        <v>108.1766774060036</v>
       </c>
       <c r="R14">
-        <v>1070.390805753775</v>
+        <v>973.5900966540321</v>
       </c>
       <c r="S14">
-        <v>0.008420261188155411</v>
+        <v>0.004905151286433163</v>
       </c>
       <c r="T14">
-        <v>0.01111374585864319</v>
+        <v>0.006805220196830724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N15">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O15">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P15">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q15">
-        <v>1694.622414111926</v>
+        <v>3845.686103124771</v>
       </c>
       <c r="R15">
-        <v>10167.73448467155</v>
+        <v>23074.11661874862</v>
       </c>
       <c r="S15">
-        <v>0.1199771797261357</v>
+        <v>0.1743783649886229</v>
       </c>
       <c r="T15">
-        <v>0.1055704294294883</v>
+        <v>0.1612839376423266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N16">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O16">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P16">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q16">
-        <v>124.9740952398868</v>
+        <v>69.83992709929157</v>
       </c>
       <c r="R16">
-        <v>1124.766857158981</v>
+        <v>628.559343893624</v>
       </c>
       <c r="S16">
-        <v>0.008848012017806803</v>
+        <v>0.00316681392394546</v>
       </c>
       <c r="T16">
-        <v>0.01167832620898393</v>
+        <v>0.004393517104038062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N17">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O17">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P17">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q17">
-        <v>41.039963612115</v>
+        <v>28.425847369283</v>
       </c>
       <c r="R17">
-        <v>246.23978167269</v>
+        <v>170.555084215698</v>
       </c>
       <c r="S17">
-        <v>0.002905578876593085</v>
+        <v>0.001288938476711368</v>
       </c>
       <c r="T17">
-        <v>0.002556679615601612</v>
+        <v>0.001192149455675163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N18">
         <v>20.463629</v>
       </c>
       <c r="O18">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P18">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q18">
-        <v>290.3736772846049</v>
+        <v>127.107519143423</v>
       </c>
       <c r="R18">
-        <v>1742.24206370763</v>
+        <v>762.645114860538</v>
       </c>
       <c r="S18">
-        <v>0.02055809871107547</v>
+        <v>0.005763549278756896</v>
       </c>
       <c r="T18">
-        <v>0.01808950097123566</v>
+        <v>0.00533075259957938</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N19">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O19">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P19">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q19">
-        <v>60.456472803375</v>
+        <v>22.314606561884</v>
       </c>
       <c r="R19">
-        <v>362.73883682025</v>
+        <v>133.887639371304</v>
       </c>
       <c r="S19">
-        <v>0.004280243812861364</v>
+        <v>0.001011831049981949</v>
       </c>
       <c r="T19">
-        <v>0.003766276040311442</v>
+        <v>0.0009358505912158645</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N20">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O20">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P20">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q20">
-        <v>861.4218657898575</v>
+        <v>793.285340329482</v>
       </c>
       <c r="R20">
-        <v>3445.68746315943</v>
+        <v>3173.141361317928</v>
       </c>
       <c r="S20">
-        <v>0.06098760712194074</v>
+        <v>0.03597064266469859</v>
       </c>
       <c r="T20">
-        <v>0.03577618059499276</v>
+        <v>0.02217968912548745</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N21">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O21">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P21">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q21">
-        <v>63.527672831685</v>
+        <v>14.406529511738</v>
       </c>
       <c r="R21">
-        <v>381.1660369901099</v>
+        <v>86.439177070428</v>
       </c>
       <c r="S21">
-        <v>0.004497680992201731</v>
+        <v>0.0006532480795496976</v>
       </c>
       <c r="T21">
-        <v>0.003957603561505864</v>
+        <v>0.0006041943479280642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9640756666666667</v>
+        <v>1.525469666666667</v>
       </c>
       <c r="N22">
-        <v>2.892227</v>
+        <v>4.576409</v>
       </c>
       <c r="O22">
-        <v>0.03116597139157128</v>
+        <v>0.02884292053092702</v>
       </c>
       <c r="P22">
-        <v>0.03985704515756099</v>
+        <v>0.03941949540871108</v>
       </c>
       <c r="Q22">
-        <v>107.3220774574953</v>
+        <v>146.8671046068743</v>
       </c>
       <c r="R22">
-        <v>965.8986971174581</v>
+        <v>1321.803941461869</v>
       </c>
       <c r="S22">
-        <v>0.007598270900038816</v>
+        <v>0.006659525734861797</v>
       </c>
       <c r="T22">
-        <v>0.01002881619241724</v>
+        <v>0.00923917253226049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.821209666666666</v>
+        <v>6.821209666666667</v>
       </c>
       <c r="N23">
         <v>20.463629</v>
       </c>
       <c r="O23">
-        <v>0.2205113485150814</v>
+        <v>0.1289724814852373</v>
       </c>
       <c r="P23">
-        <v>0.2820040699227877</v>
+        <v>0.1762661356122381</v>
       </c>
       <c r="Q23">
-        <v>759.3453683267072</v>
+        <v>656.7231951906542</v>
       </c>
       <c r="R23">
-        <v>6834.108314940366</v>
+        <v>5910.508756715889</v>
       </c>
       <c r="S23">
-        <v>0.05376071682474799</v>
+        <v>0.0297783838713201</v>
       </c>
       <c r="T23">
-        <v>0.07095776848456883</v>
+        <v>0.04131339636976704</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.420191666666667</v>
+        <v>1.197510666666667</v>
       </c>
       <c r="N24">
-        <v>4.260575</v>
+        <v>3.592532</v>
       </c>
       <c r="O24">
-        <v>0.04591097398705006</v>
+        <v>0.02264201363575945</v>
       </c>
       <c r="P24">
-        <v>0.05871390114682403</v>
+        <v>0.03094474263109954</v>
       </c>
       <c r="Q24">
-        <v>158.0974661267833</v>
+        <v>115.2923117334013</v>
       </c>
       <c r="R24">
-        <v>1422.87719514105</v>
+        <v>1037.630805600612</v>
       </c>
       <c r="S24">
-        <v>0.01119310587997861</v>
+        <v>0.005227801821759052</v>
       </c>
       <c r="T24">
-        <v>0.01477357190462855</v>
+        <v>0.007252853268942273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.2357845</v>
+        <v>42.571562</v>
       </c>
       <c r="N25">
-        <v>40.471569</v>
+        <v>85.143124</v>
       </c>
       <c r="O25">
-        <v>0.6541684461278472</v>
+        <v>0.8049246776086439</v>
       </c>
       <c r="P25">
-        <v>0.5577284055609555</v>
+        <v>0.7333913960927264</v>
       </c>
       <c r="Q25">
-        <v>2252.672177725521</v>
+        <v>4098.647246912613</v>
       </c>
       <c r="R25">
-        <v>13516.03306635313</v>
+        <v>24591.88348147568</v>
       </c>
       <c r="S25">
-        <v>0.1594864156642683</v>
+        <v>0.185848607092765</v>
       </c>
       <c r="T25">
-        <v>0.1403354323570494</v>
+        <v>0.1718928558552456</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.492337666666667</v>
+        <v>0.7731246666666668</v>
       </c>
       <c r="N26">
-        <v>4.477012999999999</v>
+        <v>2.319374</v>
       </c>
       <c r="O26">
-        <v>0.04824325997845007</v>
+        <v>0.01461790673943223</v>
       </c>
       <c r="P26">
-        <v>0.06169657821187188</v>
+        <v>0.01997823025522497</v>
       </c>
       <c r="Q26">
-        <v>166.1288467206113</v>
+        <v>74.43385061965934</v>
       </c>
       <c r="R26">
-        <v>1495.159620485502</v>
+        <v>669.904655576934</v>
       </c>
       <c r="S26">
-        <v>0.0117617177341182</v>
+        <v>0.003375120283560614</v>
       </c>
       <c r="T26">
-        <v>0.01552407209671388</v>
+        <v>0.004682513418892223</v>
       </c>
     </row>
   </sheetData>
